--- a/iselUssSyncV2/OutputWSLorientation/20220524_1221_D50L474W30Q10.5U0.30H44.5G2_S1_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSLorientation/20220524_1221_D50L474W30Q10.5U0.30H44.5G2_S1_DATA.xlsx
@@ -344,10 +344,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="N2" s="0">
-        <v>0.020171550439245317</v>
+        <v>0.010085775219622659</v>
       </c>
       <c r="O2" s="0">
-        <v>0.5730676085347427</v>
+        <v>0.28653380426737135</v>
       </c>
       <c r="P2" s="0">
         <v>115.2505166666667</v>
@@ -356,10 +356,10 @@
         <v>1.1306075685000003</v>
       </c>
       <c r="R2" s="0">
-        <v>1.259768785843016</v>
+        <v>2.519537571686032</v>
       </c>
       <c r="S2" s="0">
-        <v>0.22961965257431249</v>
+        <v>1.2825303196419069</v>
       </c>
       <c r="T2" s="0">
         <v>0.026211093283557706</v>
@@ -383,16 +383,16 @@
         <v>140000</v>
       </c>
       <c r="AA2" s="0">
-        <v>0.89747228317251626</v>
+        <v>0.44873614158625813</v>
       </c>
       <c r="AB2" s="0">
-        <v>4.9238275375148843</v>
+        <v>0.8815445149208444</v>
       </c>
       <c r="AC2" s="0">
-        <v>4.3161183178639684</v>
+        <v>2.1580591589319842</v>
       </c>
       <c r="AD2" s="0">
-        <v>1.9194348134654544</v>
+        <v>0.95971740673272721</v>
       </c>
       <c r="AE2" s="0">
         <v>10</v>
@@ -401,7 +401,7 @@
         <v>33</v>
       </c>
       <c r="AG2" s="0">
-        <v>9.2399458553788527</v>
+        <v>3.0396036738528287</v>
       </c>
     </row>
   </sheetData>
